--- a/carbon-elastic/carbon-kinematics.xlsx
+++ b/carbon-elastic/carbon-kinematics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="24" windowWidth="9540" windowHeight="8472" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="84" windowWidth="9540" windowHeight="8412" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="kinematics" sheetId="1" r:id="rId1"/>
@@ -427,7 +427,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -480,10 +480,10 @@
         <v>7.5</v>
       </c>
       <c r="D3">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="E3">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -521,11 +521,11 @@
       </c>
       <c r="D5">
         <f>(D1*D4-D2*(D1+D4))/(D1*(1-COS(D3/180*3.14159))+D4-D2)</f>
-        <v>2210.6547736996658</v>
+        <v>2205.9061141032721</v>
       </c>
       <c r="E5">
         <f>(E1*E4-E2*(E1+E4))/(E1*(1-COS(E3/180*3.14159))+E4-E2)</f>
-        <v>2206.2647408766388</v>
+        <v>2201.5236553553032</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -542,11 +542,11 @@
       </c>
       <c r="D6">
         <f>(D5*(D1+D4)-D1*(D5*COS(D3/180*3.14159)+D4))/(D5-D1-D4)</f>
-        <v>-3.330509897631556E-13</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <f>(E5*(E1+E4)-E1*(E5*COS(E3/180*3.14159)+E4))/(E5-E1-E4)</f>
-        <v>4.3999999999999826</v>
+        <v>4.3999999999996628</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -580,11 +580,11 @@
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>-11185.345226300335</v>
+        <v>-11190.093885896727</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>-11189.735259123361</v>
+        <v>-11194.476344644696</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -605,7 +605,7 @@
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>49234.83514014259</v>
+        <v>49255.695916432887</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -619,11 +619,11 @@
       </c>
       <c r="D10">
         <f t="shared" si="2"/>
-        <v>11185.345226300335</v>
+        <v>11190.093885896727</v>
       </c>
       <c r="E10">
         <f t="shared" si="2"/>
-        <v>11185.334393704476</v>
+        <v>11190.075479592477</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -641,7 +641,7 @@
       </c>
       <c r="E11">
         <f t="shared" si="3"/>
-        <v>4.4008654188855871</v>
+        <v>4.4008650522191601</v>
       </c>
     </row>
   </sheetData>
@@ -651,10 +651,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -759,8 +759,20 @@
         <v>2.1354999999999998E-3</v>
       </c>
       <c r="C11" s="1">
-        <f>B11*B8*B7*10000</f>
+        <f>B11*$B$8*$B$7*10000</f>
         <v>93732.67399375001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>13.5</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C12">
+        <f>B12*$B$8*$B$7*10000</f>
+        <v>131677.83750000002</v>
       </c>
     </row>
   </sheetData>
